--- a/Code/ProjectReporter/Helper/jieduanhuafen.xlsx
+++ b/Code/ProjectReporter/Helper/jieduanhuafen.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,6 +35,30 @@
   </si>
   <si>
     <t>阶段时间(月)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XXXXXXXX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XXXXXXXXXXX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDDDDDDD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDDDDDDDDDD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EEEEEEEE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EEEEEEEEEEE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -381,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -413,6 +437,57 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>3000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
